--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_TechGlobal.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -259,6 +259,153 @@
   </si>
   <si>
     <t>TG102</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.210415</t>
+  </si>
+  <si>
+    <t>123.031.043.235,09207</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG, NCFW</t>
+  </si>
+  <si>
+    <t>203.162.121.026,09207</t>
+  </si>
+  <si>
+    <t>203.162.121.016,09207</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại anten GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS, NCFW</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09207</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Xử lý lại khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>123.031.043.235,01102</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.180405</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.024,09107</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.180115</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>Không sửa chữa do hết linh kiện</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>203.162.121.025,01002</t>
+  </si>
+  <si>
+    <t>MCh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---16.051017 </t>
+  </si>
+  <si>
+    <t>203.162.121.025,09007</t>
+  </si>
+  <si>
+    <t>Hết linh kiện không sửa chữa</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00041.250815</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09008</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>X.2.27</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>118.069.182.133,0800</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Lỗi GPS</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baurate GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>Nguồn chập chờn</t>
+  </si>
+  <si>
+    <t>Xủ lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E9"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1375,9 @@
       <c r="B6" s="61">
         <v>44699</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44701</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -1236,18 +1385,38 @@
         <v>868183034643606</v>
       </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
       <c r="U6" s="66" t="s">
@@ -1265,7 +1434,9 @@
       <c r="B7" s="61">
         <v>44699</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44701</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -1273,18 +1444,34 @@
         <v>868183037770829</v>
       </c>
       <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>79</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
       <c r="U7" s="67"/>
@@ -1300,7 +1487,9 @@
       <c r="B8" s="61">
         <v>44699</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44701</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>64</v>
       </c>
@@ -1308,18 +1497,38 @@
         <v>868183037998130</v>
       </c>
       <c r="F8" s="48"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H8" s="48"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
       <c r="U8" s="67"/>
@@ -1335,7 +1544,9 @@
       <c r="B9" s="61">
         <v>44699</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44701</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>64</v>
       </c>
@@ -1343,18 +1554,38 @@
         <v>868183034517412</v>
       </c>
       <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H9" s="48"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
       <c r="U9" s="67"/>
@@ -1680,7 +1911,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1744,7 +1975,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1925,7 +2156,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -1957,7 +2188,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2053,7 +2284,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -2149,7 +2380,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2213,7 +2444,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2792,13 +3023,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2810,6 +3034,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2820,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3036,7 +3267,9 @@
       <c r="B6" s="61">
         <v>44699</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44701</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -3044,17 +3277,31 @@
         <v>868183033870192</v>
       </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H6" s="48"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
@@ -3534,7 +3781,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4582,6 +4829,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4593,13 +4847,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4610,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4826,7 +5073,9 @@
       <c r="B6" s="61">
         <v>44699</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44701</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
       </c>
@@ -4834,18 +5083,36 @@
         <v>868926034000577</v>
       </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
       <c r="U6" s="66" t="s">
@@ -5324,7 +5591,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5601,7 +5868,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5729,7 +5996,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -5793,7 +6060,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6372,13 +6639,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6390,6 +6650,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6400,8 +6667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6616,7 +6883,9 @@
       <c r="B6" s="61">
         <v>44699</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44701</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -6624,18 +6893,36 @@
         <v>861694030881435</v>
       </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
       <c r="U6" s="66" t="s">
@@ -6653,7 +6940,9 @@
       <c r="B7" s="61">
         <v>44699</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44701</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>66</v>
       </c>
@@ -6661,18 +6950,34 @@
         <v>862631039238653</v>
       </c>
       <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H7" s="48"/>
       <c r="I7" s="53"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
       <c r="U7" s="67"/>
@@ -7056,7 +7361,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7088,7 +7393,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7301,7 +7606,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -7429,7 +7734,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -7589,7 +7894,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7707,7 +8012,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -8168,13 +8473,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8186,6 +8484,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8196,8 +8501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E9"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8412,7 +8717,9 @@
       <c r="B6" s="61">
         <v>44699</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44701</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>67</v>
       </c>
@@ -8420,18 +8727,36 @@
         <v>865209034367111</v>
       </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
       <c r="U6" s="66" t="s">
@@ -8449,26 +8774,48 @@
       <c r="B7" s="61">
         <v>44699</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44701</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="38">
-        <v>869627031776859</v>
+        <v>861693035641356</v>
       </c>
       <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="I7" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
       <c r="U7" s="67"/>
@@ -8852,7 +9199,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8916,7 +9263,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9129,7 +9476,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9225,7 +9572,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -9321,7 +9668,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9385,7 +9732,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9964,13 +10311,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9982,6 +10322,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9992,8 +10339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10208,7 +10555,9 @@
       <c r="B6" s="61">
         <v>44699</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44701</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
@@ -10216,18 +10565,36 @@
         <v>869668020057992</v>
       </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
       <c r="U6" s="66" t="s">
@@ -10674,7 +11041,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -10887,7 +11254,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -11175,7 +11542,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -11293,7 +11660,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -11754,13 +12121,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11772,6 +12132,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11783,7 +12150,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11998,7 +12365,9 @@
       <c r="B6" s="61">
         <v>44699</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44701</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>69</v>
       </c>
@@ -12006,18 +12375,38 @@
         <v>862118021732653</v>
       </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>114</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
       <c r="U6" s="66" t="s">
@@ -12035,7 +12424,9 @@
       <c r="B7" s="61">
         <v>44699</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44701</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>69</v>
       </c>
@@ -12043,18 +12434,36 @@
         <v>862118021562233</v>
       </c>
       <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
       <c r="U7" s="67"/>
@@ -12070,7 +12479,9 @@
       <c r="B8" s="61">
         <v>44699</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44701</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>69</v>
       </c>
@@ -12078,18 +12489,32 @@
         <v>864161026885827</v>
       </c>
       <c r="F8" s="48"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H8" s="48"/>
       <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
       <c r="U8" s="67"/>
@@ -12105,7 +12530,9 @@
       <c r="B9" s="61">
         <v>44699</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44701</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>69</v>
       </c>
@@ -12113,18 +12540,36 @@
         <v>865904028282967</v>
       </c>
       <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="H9" s="48"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="53" t="s">
+        <v>111</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
       <c r="U9" s="67"/>
@@ -12450,7 +12895,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -12482,7 +12927,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -12791,7 +13236,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -12823,7 +13268,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -12919,7 +13364,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -12983,7 +13428,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -13101,7 +13546,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -13562,13 +14007,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13580,6 +14018,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15347,6 +15792,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15358,13 +15810,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
